--- a/planilha/LME_media_mensal.xlsx
+++ b/planilha/LME_media_mensal.xlsx
@@ -1,37 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Cobre</t>
+  </si>
+  <si>
+    <t>Zinco</t>
+  </si>
+  <si>
+    <t>Aluminio</t>
+  </si>
+  <si>
+    <t>Chumbo</t>
+  </si>
+  <si>
+    <t>Estanho</t>
+  </si>
+  <si>
+    <t>Niquel</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Fev</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Abr</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Ago</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +99,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,307 +415,290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Mês</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cobre</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Zinco</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Aluminio</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Chumbo</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Estanho</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Niquel</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Jan</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>54.114</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>19.983</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>16.617</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>12.969</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>231.324</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>123.503</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fev</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>51.621</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>18.925</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>16.926</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>11.939</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>229.066</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>125.504</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mar</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>50.983</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>19.782</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>17.617</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>11.751</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>220.527</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>188.53</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Abr</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>48.327</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>20.713</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>15.457</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>11.376</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>204.864</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>157.972</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>46.455</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>18.646</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>14.02</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>10.644</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>178.482</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>138.709</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Jun</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
         <v>47.171</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>19.024</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>13.379</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>10.794</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>165.937</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>134.923</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Jul</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
         <v>47.171</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>19.024</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>13.379</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>10.794</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>165.937</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>134.923</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Ago</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
         <v>41.803</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>16.434</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>12.57</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>10.094</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>141.503</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>115.758</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Ago</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
         <v>41.803</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>16.434</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>12.57</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>10.094</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>141.503</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>115.758</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ago</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
         <v>41.803</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>16.434</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>12.57</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>10.094</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>141.503</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>115.758</v>
       </c>
     </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>40.946</v>
+      </c>
+      <c r="C12">
+        <v>17.76</v>
+      </c>
+      <c r="D12">
+        <v>12.742</v>
+      </c>
+      <c r="E12">
+        <v>10.653</v>
+      </c>
+      <c r="F12">
+        <v>130.281</v>
+      </c>
+      <c r="G12">
+        <v>119.847</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilha/LME_media_mensal.xlsx
+++ b/planilha/LME_media_mensal.xlsx
@@ -7,58 +7,574 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>Mês</t>
-  </si>
-  <si>
-    <t>Cobre</t>
-  </si>
-  <si>
-    <t>Zinco</t>
-  </si>
-  <si>
-    <t>Aluminio</t>
-  </si>
-  <si>
-    <t>Chumbo</t>
-  </si>
-  <si>
-    <t>Estanho</t>
-  </si>
-  <si>
-    <t>Niquel</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Fev</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Abr</t>
-  </si>
-  <si>
-    <t>Mai</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Ago</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="187">
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>zinco</t>
+  </si>
+  <si>
+    <t>cobre</t>
+  </si>
+  <si>
+    <t>aluminio</t>
+  </si>
+  <si>
+    <t>chumbo</t>
+  </si>
+  <si>
+    <t>estanho</t>
+  </si>
+  <si>
+    <t>niquel</t>
+  </si>
+  <si>
+    <t>dolar</t>
+  </si>
+  <si>
+    <t>03/08/2022</t>
+  </si>
+  <si>
+    <t>04/08/2022</t>
+  </si>
+  <si>
+    <t>05/08/2022</t>
+  </si>
+  <si>
+    <t>08/08/2022</t>
+  </si>
+  <si>
+    <t>09/08/2022</t>
+  </si>
+  <si>
+    <t>10/08/2022</t>
+  </si>
+  <si>
+    <t>11/08/2022</t>
+  </si>
+  <si>
+    <t>12/08/2022</t>
+  </si>
+  <si>
+    <t>15/08/2022</t>
+  </si>
+  <si>
+    <t>16/08/2022</t>
+  </si>
+  <si>
+    <t>17/08/2022</t>
+  </si>
+  <si>
+    <t>18/08/2022</t>
+  </si>
+  <si>
+    <t>19/08/2022</t>
+  </si>
+  <si>
+    <t>22/08/2022</t>
+  </si>
+  <si>
+    <t>23/08/2022</t>
+  </si>
+  <si>
+    <t>24/08/2022</t>
+  </si>
+  <si>
+    <t>25/08/2022</t>
+  </si>
+  <si>
+    <t>26/08/2022</t>
+  </si>
+  <si>
+    <t>29/08/2022</t>
+  </si>
+  <si>
+    <t>30/08/2022</t>
+  </si>
+  <si>
+    <t>31/08/2022</t>
+  </si>
+  <si>
+    <t>01/09/2022</t>
+  </si>
+  <si>
+    <t>02/09/2022</t>
+  </si>
+  <si>
+    <t>05/09/2022</t>
+  </si>
+  <si>
+    <t>06/09/2022</t>
+  </si>
+  <si>
+    <t>3355.00</t>
+  </si>
+  <si>
+    <t>3431.00</t>
+  </si>
+  <si>
+    <t>3550.00</t>
+  </si>
+  <si>
+    <t>3507.00</t>
+  </si>
+  <si>
+    <t>3577.00</t>
+  </si>
+  <si>
+    <t>3632.00</t>
+  </si>
+  <si>
+    <t>3727.00</t>
+  </si>
+  <si>
+    <t>3672.00</t>
+  </si>
+  <si>
+    <t>3621.00</t>
+  </si>
+  <si>
+    <t>3877.00</t>
+  </si>
+  <si>
+    <t>3635.50</t>
+  </si>
+  <si>
+    <t>3574.00</t>
+  </si>
+  <si>
+    <t>3532.00</t>
+  </si>
+  <si>
+    <t>3520.00</t>
+  </si>
+  <si>
+    <t>3561.00</t>
+  </si>
+  <si>
+    <t>3622.00</t>
+  </si>
+  <si>
+    <t>3678.00</t>
+  </si>
+  <si>
+    <t>3592.00</t>
+  </si>
+  <si>
+    <t>3540.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>3144.50</t>
+  </si>
+  <si>
+    <t>3265.00</t>
+  </si>
+  <si>
+    <t>3217.00</t>
+  </si>
+  <si>
+    <t>7774.00</t>
+  </si>
+  <si>
+    <t>7642.00</t>
+  </si>
+  <si>
+    <t>7830.50</t>
+  </si>
+  <si>
+    <t>7835.00</t>
+  </si>
+  <si>
+    <t>7971.50</t>
+  </si>
+  <si>
+    <t>7976.00</t>
+  </si>
+  <si>
+    <t>8140.00</t>
+  </si>
+  <si>
+    <t>8065.00</t>
+  </si>
+  <si>
+    <t>7865.50</t>
+  </si>
+  <si>
+    <t>7992.00</t>
+  </si>
+  <si>
+    <t>7955.00</t>
+  </si>
+  <si>
+    <t>8020.00</t>
+  </si>
+  <si>
+    <t>8051.00</t>
+  </si>
+  <si>
+    <t>8041.00</t>
+  </si>
+  <si>
+    <t>8100.50</t>
+  </si>
+  <si>
+    <t>8031.50</t>
+  </si>
+  <si>
+    <t>8155.00</t>
+  </si>
+  <si>
+    <t>8315.00</t>
+  </si>
+  <si>
+    <t>7910.50</t>
+  </si>
+  <si>
+    <t>7721.00</t>
+  </si>
+  <si>
+    <t>7702.00</t>
+  </si>
+  <si>
+    <t>7587.00</t>
+  </si>
+  <si>
+    <t>7652.50</t>
+  </si>
+  <si>
+    <t>7707.00</t>
+  </si>
+  <si>
+    <t>2403.00</t>
+  </si>
+  <si>
+    <t>2374.00</t>
+  </si>
+  <si>
+    <t>2447.50</t>
+  </si>
+  <si>
+    <t>2435.50</t>
+  </si>
+  <si>
+    <t>2488.00</t>
+  </si>
+  <si>
+    <t>2462.50</t>
+  </si>
+  <si>
+    <t>2498.00</t>
+  </si>
+  <si>
+    <t>2468.50</t>
+  </si>
+  <si>
+    <t>2389.50</t>
+  </si>
+  <si>
+    <t>2442.00</t>
+  </si>
+  <si>
+    <t>2414.00</t>
+  </si>
+  <si>
+    <t>2412.00</t>
+  </si>
+  <si>
+    <t>2376.00</t>
+  </si>
+  <si>
+    <t>2387.50</t>
+  </si>
+  <si>
+    <t>2438.50</t>
+  </si>
+  <si>
+    <t>2422.00</t>
+  </si>
+  <si>
+    <t>2442.50</t>
+  </si>
+  <si>
+    <t>2495.00</t>
+  </si>
+  <si>
+    <t>2406.50</t>
+  </si>
+  <si>
+    <t>2368.50</t>
+  </si>
+  <si>
+    <t>2306.00</t>
+  </si>
+  <si>
+    <t>2309.00</t>
+  </si>
+  <si>
+    <t>2290.50</t>
+  </si>
+  <si>
+    <t>2260.00</t>
+  </si>
+  <si>
+    <t>2021.00</t>
+  </si>
+  <si>
+    <t>2019.50</t>
+  </si>
+  <si>
+    <t>2092.00</t>
+  </si>
+  <si>
+    <t>2140.50</t>
+  </si>
+  <si>
+    <t>2183.00</t>
+  </si>
+  <si>
+    <t>2175.00</t>
+  </si>
+  <si>
+    <t>2185.50</t>
+  </si>
+  <si>
+    <t>2176.00</t>
+  </si>
+  <si>
+    <t>2192.00</t>
+  </si>
+  <si>
+    <t>2141.00</t>
+  </si>
+  <si>
+    <t>2126.00</t>
+  </si>
+  <si>
+    <t>2070.00</t>
+  </si>
+  <si>
+    <t>2032.00</t>
+  </si>
+  <si>
+    <t>2005.00</t>
+  </si>
+  <si>
+    <t>1958.00</t>
+  </si>
+  <si>
+    <t>1997.00</t>
+  </si>
+  <si>
+    <t>1997.50</t>
+  </si>
+  <si>
+    <t>1979.00</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>1915.00</t>
+  </si>
+  <si>
+    <t>1890.00</t>
+  </si>
+  <si>
+    <t>1882.00</t>
+  </si>
+  <si>
+    <t>1895.00</t>
+  </si>
+  <si>
+    <t>24350.00</t>
+  </si>
+  <si>
+    <t>24600.00</t>
+  </si>
+  <si>
+    <t>24755.00</t>
+  </si>
+  <si>
+    <t>23100.00</t>
+  </si>
+  <si>
+    <t>24495.00</t>
+  </si>
+  <si>
+    <t>23850.00</t>
+  </si>
+  <si>
+    <t>24875.00</t>
+  </si>
+  <si>
+    <t>25010.00</t>
+  </si>
+  <si>
+    <t>24300.00</t>
+  </si>
+  <si>
+    <t>24995.00</t>
+  </si>
+  <si>
+    <t>24950.00</t>
+  </si>
+  <si>
+    <t>24550.00</t>
+  </si>
+  <si>
+    <t>24500.00</t>
+  </si>
+  <si>
+    <t>24545.00</t>
+  </si>
+  <si>
+    <t>24455.00</t>
+  </si>
+  <si>
+    <t>24650.00</t>
+  </si>
+  <si>
+    <t>24450.00</t>
+  </si>
+  <si>
+    <t>23775.00</t>
+  </si>
+  <si>
+    <t>23600.00</t>
+  </si>
+  <si>
+    <t>21625.00</t>
+  </si>
+  <si>
+    <t>21700.00</t>
+  </si>
+  <si>
+    <t>21650.00</t>
+  </si>
+  <si>
+    <t>21750.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>22035.00</t>
+  </si>
+  <si>
+    <t>22170.00</t>
+  </si>
+  <si>
+    <t>21725.00</t>
+  </si>
+  <si>
+    <t>21355.00</t>
+  </si>
+  <si>
+    <t>21330.00</t>
+  </si>
+  <si>
+    <t>23110.00</t>
+  </si>
+  <si>
+    <t>23225.00</t>
+  </si>
+  <si>
+    <t>21850.00</t>
+  </si>
+  <si>
+    <t>22500.00</t>
+  </si>
+  <si>
+    <t>21575.00</t>
+  </si>
+  <si>
+    <t>21810.00</t>
+  </si>
+  <si>
+    <t>21780.00</t>
+  </si>
+  <si>
+    <t>21350.00</t>
+  </si>
+  <si>
+    <t>21250.00</t>
+  </si>
+  <si>
+    <t>21510.00</t>
+  </si>
+  <si>
+    <t>21385.00</t>
+  </si>
+  <si>
+    <t>21255.00</t>
+  </si>
+  <si>
+    <t>20525.00</t>
+  </si>
+  <si>
+    <t>20200.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>5.23</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
+    <t>5.22</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>5.09</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>5.18</t>
+  </si>
+  <si>
+    <t>5.20</t>
+  </si>
+  <si>
+    <t>5.17</t>
+  </si>
+  <si>
+    <t>5.04</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>5.19</t>
   </si>
 </sst>
 </file>
@@ -416,13 +932,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,258 +960,658 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>54.114</v>
-      </c>
-      <c r="C2">
-        <v>19.983</v>
-      </c>
-      <c r="D2">
-        <v>16.617</v>
-      </c>
-      <c r="E2">
-        <v>12.969</v>
-      </c>
-      <c r="F2">
-        <v>231.324</v>
-      </c>
-      <c r="G2">
-        <v>123.503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>51.621</v>
-      </c>
-      <c r="C3">
-        <v>18.925</v>
-      </c>
-      <c r="D3">
-        <v>16.926</v>
-      </c>
-      <c r="E3">
-        <v>11.939</v>
-      </c>
-      <c r="F3">
-        <v>229.066</v>
-      </c>
-      <c r="G3">
-        <v>125.504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>50.983</v>
-      </c>
-      <c r="C4">
-        <v>19.782</v>
-      </c>
-      <c r="D4">
-        <v>17.617</v>
-      </c>
-      <c r="E4">
-        <v>11.751</v>
-      </c>
-      <c r="F4">
-        <v>220.527</v>
-      </c>
-      <c r="G4">
-        <v>188.53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>48.327</v>
-      </c>
-      <c r="C5">
-        <v>20.713</v>
-      </c>
-      <c r="D5">
-        <v>15.457</v>
-      </c>
-      <c r="E5">
-        <v>11.376</v>
-      </c>
-      <c r="F5">
-        <v>204.864</v>
-      </c>
-      <c r="G5">
-        <v>157.972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>46.455</v>
-      </c>
-      <c r="C6">
-        <v>18.646</v>
-      </c>
-      <c r="D6">
-        <v>14.02</v>
-      </c>
-      <c r="E6">
-        <v>10.644</v>
-      </c>
-      <c r="F6">
-        <v>178.482</v>
-      </c>
-      <c r="G6">
-        <v>138.709</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>47.171</v>
-      </c>
-      <c r="C7">
-        <v>19.024</v>
-      </c>
-      <c r="D7">
-        <v>13.379</v>
-      </c>
-      <c r="E7">
-        <v>10.794</v>
-      </c>
-      <c r="F7">
-        <v>165.937</v>
-      </c>
-      <c r="G7">
-        <v>134.923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>47.171</v>
-      </c>
-      <c r="C8">
-        <v>19.024</v>
-      </c>
-      <c r="D8">
-        <v>13.379</v>
-      </c>
-      <c r="E8">
-        <v>10.794</v>
-      </c>
-      <c r="F8">
-        <v>165.937</v>
-      </c>
-      <c r="G8">
-        <v>134.923</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>41.803</v>
-      </c>
-      <c r="C9">
-        <v>16.434</v>
-      </c>
-      <c r="D9">
-        <v>12.57</v>
-      </c>
-      <c r="E9">
-        <v>10.094</v>
-      </c>
-      <c r="F9">
-        <v>141.503</v>
-      </c>
-      <c r="G9">
-        <v>115.758</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>41.803</v>
-      </c>
-      <c r="C10">
-        <v>16.434</v>
-      </c>
-      <c r="D10">
-        <v>12.57</v>
-      </c>
-      <c r="E10">
-        <v>10.094</v>
-      </c>
-      <c r="F10">
-        <v>141.503</v>
-      </c>
-      <c r="G10">
-        <v>115.758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>41.803</v>
-      </c>
-      <c r="C11">
-        <v>16.434</v>
-      </c>
-      <c r="D11">
-        <v>12.57</v>
-      </c>
-      <c r="E11">
-        <v>10.094</v>
-      </c>
-      <c r="F11">
-        <v>141.503</v>
-      </c>
-      <c r="G11">
-        <v>115.758</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>40.946</v>
-      </c>
-      <c r="C12">
-        <v>17.76</v>
-      </c>
-      <c r="D12">
-        <v>12.742</v>
-      </c>
-      <c r="E12">
-        <v>10.653</v>
-      </c>
-      <c r="F12">
-        <v>130.281</v>
-      </c>
-      <c r="G12">
-        <v>119.847</v>
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
